--- a/data/trans_camb/P16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; -0,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 1,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 1,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 0,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,53%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,23; 25,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,16; 117,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 152,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,56; 26,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,28; 126,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 147,69</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 1,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 2,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,07; 185,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,34; 134,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,92; 134,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,91; 280,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,71; 263,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,09; 250,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,35; 135,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,94; 108,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,23; 103,6</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 3,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 4,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 3,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 3,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 3,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 3,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 2,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 2,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,98%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 515,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 494,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,81; 537,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 133,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,5; 132,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,69; 110,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 142,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 145,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 134,89</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 3,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 6,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 5,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 4,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 5,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 3,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 2,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 5,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,71; 216,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,38; 191,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 310,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; 94,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,48; 77,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,37; 112,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; 85,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,33; 68,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,15; 126,78</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 1,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 5,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 4,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 7,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 9,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 7,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 3,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 6,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 4,91</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,83%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,62; 73,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,53; 181,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,63; 136,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 120,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,35; 169,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,25; 135,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,42; 71,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,19; 128,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,23; 102,38</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 3,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 1,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 3,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 6,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 6,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 7,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 4,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,17%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,18; 87,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,94; 39,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,1; 73,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 78,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 89,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 94,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 60,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,72; 50,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 72,49</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 1,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 1,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 2,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 2,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 4,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 2,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 3,4</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,3%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,53%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 72,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 81,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,01; 124,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 60,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,47; 72,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,02; 94,38</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,89; 56,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,4; 63,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,0; 94,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,85</t>
+          <t>-3,24; 0,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,54</t>
+          <t>-1,85; 0,4</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,96%</t>
+          <t>-66,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-72,53%</t>
+          <t>-74,29%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 152,37</t>
+          <t>-100,0; 152,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,69</t>
+          <t>-100,0; 133,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,48</t>
+          <t>-1,61; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,64</t>
+          <t>-1,27; 1,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,35</t>
+          <t>-1,14; 1,19</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,49%</t>
+          <t>-19,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>-3,03%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,92; 134,83</t>
+          <t>-75,36; 165,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 250,9</t>
+          <t>-60,03; 190,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 103,6</t>
+          <t>-54,96; 86,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,15</t>
+          <t>0,41; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,13</t>
+          <t>-1,22; 3,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,78</t>
+          <t>0,05; 2,78</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>152,75%</t>
+          <t>152,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>56,31%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 537,8</t>
+          <t>4,95; 533,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 110,03</t>
+          <t>-25,52; 108,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 134,89</t>
+          <t>0,4; 135,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 6,14</t>
+          <t>-2,1; 5,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,84</t>
+          <t>-1,47; 4,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,14</t>
+          <t>-1,34; 3,75</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>113,56%</t>
+          <t>64,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>29,9%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,38; 310,55</t>
+          <t>-43,49; 224,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 112,17</t>
+          <t>-17,72; 90,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,15; 126,78</t>
+          <t>-24,56; 91,76</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,01</t>
+          <t>-1,27; 3,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,83</t>
+          <t>1,01; 7,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,91</t>
+          <t>0,73; 4,81</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>49,31%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 136,31</t>
+          <t>-23,23; 134,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,25; 135,06</t>
+          <t>9,86; 135,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,23; 102,38</t>
+          <t>9,34; 100,66</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,87</t>
+          <t>-3,65; 4,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,6</t>
+          <t>-4,6; 2,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,21</t>
+          <t>-3,13; 2,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,15</t>
+          <t>-5,07; 4,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,5</t>
+          <t>-3,11; 6,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,52</t>
+          <t>-9,21; 3,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,22</t>
+          <t>-2,78; 3,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,41</t>
+          <t>-2,58; 3,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,91</t>
+          <t>-5,15; 2,37</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-15,49%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>-17,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>-8,17%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 87,88</t>
+          <t>-55,27; 123,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 39,09</t>
+          <t>-66,09; 68,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 73,19</t>
+          <t>-45,55; 95,56</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 78,77</t>
+          <t>-39,25; 49,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 89,24</t>
+          <t>-23,96; 77,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,41; 94,14</t>
+          <t>-71,33; 38,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 60,61</t>
+          <t>-30,12; 47,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 50,72</t>
+          <t>-28,07; 47,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,33; 72,49</t>
+          <t>-53,31; 32,88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,63</t>
+          <t>-3,98; 6,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,76</t>
+          <t>-5,29; 3,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,75</t>
+          <t>-3,56; 5,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,94</t>
+          <t>0,2; 9,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,53</t>
+          <t>-0,66; 9,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,45</t>
+          <t>4,09; 12,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,11</t>
+          <t>0,12; 6,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,34</t>
+          <t>-1,29; 5,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,4</t>
+          <t>2,47; 8,52</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>72,95%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>104,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>72,78%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-43,42; 139,65</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-57,54; 74,21</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-35,14; 109,43</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 165,73</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 156,24</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>31,67; 215,9</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 111,73</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; 85,99</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 142,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 1,63</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 1,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 2,44</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 2,94</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 3,53</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 3,92</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,11</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 2,34</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 2,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>29,98%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>34,86%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>58,75%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>43,24%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>49,21%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>40,88%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-5,31; 72,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>3,01; 81,56</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>31,01; 124,62</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 108,92</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>8,32; 60,61</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>17,47; 72,34</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>33,02; 94,38</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 82,63</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>12,89; 56,63</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>20,4; 63,43</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>43,0; 94,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>26,53; 80,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,11</t>
+          <t>-0,57; 1,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,46</t>
+          <t>-0,56; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,0</t>
+          <t>-1,28; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,06</t>
+          <t>-3,38; -0,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,68</t>
+          <t>-2,34; 1,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,96</t>
+          <t>-3,25; 0,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,2</t>
+          <t>-1,65; 0,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,15</t>
+          <t>-1,08; 1,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,4</t>
+          <t>-1,95; 0,22</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,23; 25,95</t>
+          <t>-92,55; 27,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,16; 117,63</t>
+          <t>-72,63; 117,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 152,87</t>
+          <t>-100,0; 137,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,56; 26,95</t>
+          <t>-82,63; 27,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 126,04</t>
+          <t>-60,22; 140,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 133,93</t>
+          <t>-100,0; 131,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,33</t>
+          <t>-0,97; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,57</t>
+          <t>-1,26; 1,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,77</t>
+          <t>-1,59; 2,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,65</t>
+          <t>-0,78; 2,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,52</t>
+          <t>-0,65; 2,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,84</t>
+          <t>-1,43; 2,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,88</t>
+          <t>-0,42; 1,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,45</t>
+          <t>-0,65; 1,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,19</t>
+          <t>-1,17; 1,29</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 185,54</t>
+          <t>-44,31; 187,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 134,96</t>
+          <t>-57,63; 137,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 165,02</t>
+          <t>-76,55; 196,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 280,81</t>
+          <t>-39,9; 244,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 263,21</t>
+          <t>-35,05; 276,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,03; 190,14</t>
+          <t>-65,3; 226,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 135,6</t>
+          <t>-22,1; 152,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 108,33</t>
+          <t>-30,39; 120,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 86,19</t>
+          <t>-54,34; 97,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,74</t>
+          <t>0,05; 3,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,61</t>
+          <t>0,13; 3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,14</t>
+          <t>0,42; 4,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,98</t>
+          <t>-0,47; 4,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,94</t>
+          <t>-0,74; 3,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,14</t>
+          <t>-1,05; 3,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,13</t>
+          <t>0,23; 3,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,96</t>
+          <t>0,16; 2,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,78</t>
+          <t>-0,01; 2,92</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 515,42</t>
+          <t>-4,94; 477,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 494,56</t>
+          <t>-2,09; 538,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 533,15</t>
+          <t>11,15; 638,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 133,89</t>
+          <t>-11,42; 146,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 132,53</t>
+          <t>-14,94; 139,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 108,35</t>
+          <t>-20,49; 111,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 142,83</t>
+          <t>7,2; 150,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 145,78</t>
+          <t>1,92; 144,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 135,92</t>
+          <t>-2,01; 132,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,85</t>
+          <t>-1,19; 3,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,38</t>
+          <t>-1,29; 3,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 5,03</t>
+          <t>-1,92; 4,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,23</t>
+          <t>-1,39; 5,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,09</t>
+          <t>-2,28; 4,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,91</t>
+          <t>-1,82; 4,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,56</t>
+          <t>-0,4; 3,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,8</t>
+          <t>-1,14; 2,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,75</t>
+          <t>-1,44; 3,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 216,05</t>
+          <t>-30,09; 184,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 191,42</t>
+          <t>-36,59; 179,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 224,78</t>
+          <t>-45,75; 202,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 94,99</t>
+          <t>-16,03; 99,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 77,66</t>
+          <t>-27,08; 81,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 90,14</t>
+          <t>-21,46; 79,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 85,39</t>
+          <t>-7,63; 87,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 68,28</t>
+          <t>-19,93; 70,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 91,76</t>
+          <t>-25,37; 85,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,96</t>
+          <t>-3,58; 1,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,04</t>
+          <t>-1,05; 5,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,96</t>
+          <t>-1,27; 4,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 7,08</t>
+          <t>-1,01; 7,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,71</t>
+          <t>0,95; 9,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,71</t>
+          <t>0,92; 7,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,4</t>
+          <t>-1,21; 3,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,27</t>
+          <t>1,17; 6,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,81</t>
+          <t>0,51; 5,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 73,11</t>
+          <t>-61,18; 66,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 181,24</t>
+          <t>-20,74; 167,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 134,21</t>
+          <t>-24,54; 165,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 120,3</t>
+          <t>-11,12; 118,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,35; 169,74</t>
+          <t>4,85; 161,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,86; 135,03</t>
+          <t>8,24; 141,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 71,36</t>
+          <t>-17,27; 81,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,19; 128,72</t>
+          <t>15,25; 133,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,34; 100,66</t>
+          <t>6,52; 106,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,18</t>
+          <t>-3,34; 4,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,06</t>
+          <t>-4,1; 2,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,9</t>
+          <t>-3,2; 3,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 4,38</t>
+          <t>-4,32; 4,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 6,28</t>
+          <t>-2,72; 6,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 3,85</t>
+          <t>-9,44; 3,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,1</t>
+          <t>-2,54; 3,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,34</t>
+          <t>-2,15; 3,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,37</t>
+          <t>-5,36; 2,84</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 123,68</t>
+          <t>-50,55; 143,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 68,93</t>
+          <t>-61,83; 73,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 95,56</t>
+          <t>-45,57; 96,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 49,89</t>
+          <t>-32,67; 59,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 77,13</t>
+          <t>-21,34; 71,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-71,33; 38,09</t>
+          <t>-68,65; 38,99</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 47,45</t>
+          <t>-27,02; 51,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 47,95</t>
+          <t>-23,34; 54,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 32,88</t>
+          <t>-52,98; 37,76</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,16</t>
+          <t>-4,12; 6,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 3,31</t>
+          <t>-5,74; 3,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,05</t>
+          <t>-3,44; 5,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,96</t>
+          <t>0,65; 9,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,37</t>
+          <t>-0,55; 8,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,48</t>
+          <t>3,88; 12,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,86</t>
+          <t>-0,15; 7,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,45</t>
+          <t>-1,54; 5,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,52</t>
+          <t>2,61; 8,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 139,65</t>
+          <t>-46,44; 130,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 74,21</t>
+          <t>-57,28; 72,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 109,43</t>
+          <t>-34,55; 120,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 165,73</t>
+          <t>3,89; 180,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 156,24</t>
+          <t>-7,95; 158,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,67; 215,9</t>
+          <t>26,84; 208,14</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,48; 111,73</t>
+          <t>-2,63; 114,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 85,99</t>
+          <t>-16,88; 87,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,55; 142,98</t>
+          <t>26,83; 152,74</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,63</t>
+          <t>-0,06; 1,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,76</t>
+          <t>0,14; 1,8</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,44</t>
+          <t>0,42; 2,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,94</t>
+          <t>0,63; 2,86</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,53</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,92</t>
+          <t>1,0; 3,79</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,11</t>
+          <t>0,58; 2,07</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,34</t>
+          <t>0,9; 2,36</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,93</t>
+          <t>1,17; 2,94</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 72,44</t>
+          <t>-2,32; 77,42</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3,01; 81,56</t>
+          <t>4,03; 81,07</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,21; 108,92</t>
+          <t>13,21; 112,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,32; 60,61</t>
+          <t>10,35; 58,08</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,47; 72,34</t>
+          <t>19,88; 74,19</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>19,41; 82,63</t>
+          <t>19,05; 79,45</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>12,89; 56,63</t>
+          <t>13,69; 56,02</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>20,4; 63,43</t>
+          <t>21,77; 65,12</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>26,53; 80,78</t>
+          <t>28,13; 81,43</t>
         </is>
       </c>
     </row>
